--- a/de.hpi.sam.bp2009.solution.eventManager/measurementOverGrowingRegistrationCount.xlsx
+++ b/de.hpi.sam.bp2009.solution.eventManager/measurementOverGrowingRegistrationCount.xlsx
@@ -95,7 +95,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -141,8 +141,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1183,23 +1183,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87918464"/>
-        <c:axId val="87916544"/>
+        <c:axId val="95868032"/>
+        <c:axId val="95869568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87918464"/>
+        <c:axId val="95868032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87916544"/>
+        <c:crossAx val="95869568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87916544"/>
+        <c:axId val="95869568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1207,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87918464"/>
+        <c:crossAx val="95868032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1220,7 +1220,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1729,23 +1729,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="140089984"/>
-        <c:axId val="140112256"/>
+        <c:axId val="96384512"/>
+        <c:axId val="96386048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="140089984"/>
+        <c:axId val="96384512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140112256"/>
+        <c:crossAx val="96386048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140112256"/>
+        <c:axId val="96386048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1753,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140089984"/>
+        <c:crossAx val="96384512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1766,7 +1766,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2275,23 +2275,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141400320"/>
-        <c:axId val="141406208"/>
+        <c:axId val="96507392"/>
+        <c:axId val="96508928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141400320"/>
+        <c:axId val="96507392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141406208"/>
+        <c:crossAx val="96508928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141406208"/>
+        <c:axId val="96508928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2299,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141400320"/>
+        <c:crossAx val="96507392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2312,7 +2312,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2821,23 +2821,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="136079232"/>
-        <c:axId val="136080768"/>
+        <c:axId val="96552448"/>
+        <c:axId val="96553984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136079232"/>
+        <c:axId val="96552448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136080768"/>
+        <c:crossAx val="96553984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136080768"/>
+        <c:axId val="96553984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +2845,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136079232"/>
+        <c:crossAx val="96552448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2858,7 +2858,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3367,23 +3367,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="136116480"/>
-        <c:axId val="140365824"/>
+        <c:axId val="96589312"/>
+        <c:axId val="96590848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136116480"/>
+        <c:axId val="96589312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140365824"/>
+        <c:crossAx val="96590848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="140365824"/>
+        <c:axId val="96590848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3391,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136116480"/>
+        <c:crossAx val="96589312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3404,7 +3404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3913,23 +3913,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141490816"/>
-        <c:axId val="141582720"/>
+        <c:axId val="96638464"/>
+        <c:axId val="96640000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141490816"/>
+        <c:axId val="96638464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141582720"/>
+        <c:crossAx val="96640000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141582720"/>
+        <c:axId val="96640000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,20 +3937,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141490816"/>
+        <c:crossAx val="96638464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4459,23 +4458,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="141624448"/>
-        <c:axId val="141625984"/>
+        <c:axId val="96688000"/>
+        <c:axId val="96689536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="141624448"/>
+        <c:axId val="96688000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141625984"/>
+        <c:crossAx val="96689536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="141625984"/>
+        <c:axId val="96689536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4483,20 +4482,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="141624448"/>
+        <c:crossAx val="96688000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5005,23 +5003,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="147531648"/>
-        <c:axId val="147533184"/>
+        <c:axId val="96888704"/>
+        <c:axId val="96890240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147531648"/>
+        <c:axId val="96888704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147533184"/>
+        <c:crossAx val="96890240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147533184"/>
+        <c:axId val="96890240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5030,7 +5028,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147531648"/>
+        <c:crossAx val="96888704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5043,7 +5041,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5552,23 +5550,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149734912"/>
-        <c:axId val="149736448"/>
+        <c:axId val="96941952"/>
+        <c:axId val="96943488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149734912"/>
+        <c:axId val="96941952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149736448"/>
+        <c:crossAx val="96943488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149736448"/>
+        <c:axId val="96943488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5577,7 +5575,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149734912"/>
+        <c:crossAx val="96941952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5590,7 +5588,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6099,23 +6097,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133305472"/>
-        <c:axId val="133307008"/>
+        <c:axId val="96987008"/>
+        <c:axId val="96988544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133305472"/>
+        <c:axId val="96987008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133307008"/>
+        <c:crossAx val="96988544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133307008"/>
+        <c:axId val="96988544"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6124,7 +6122,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133305472"/>
+        <c:crossAx val="96987008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6137,7 +6135,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6646,23 +6644,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="133337856"/>
-        <c:axId val="133339392"/>
+        <c:axId val="96843648"/>
+        <c:axId val="96845184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133337856"/>
+        <c:axId val="96843648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133339392"/>
+        <c:crossAx val="96845184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133339392"/>
+        <c:axId val="96845184"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6671,7 +6669,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133337856"/>
+        <c:crossAx val="96843648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6684,7 +6682,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7193,23 +7191,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142805632"/>
-        <c:axId val="142815616"/>
+        <c:axId val="95933952"/>
+        <c:axId val="95935488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142805632"/>
+        <c:axId val="95933952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142815616"/>
+        <c:crossAx val="95935488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142815616"/>
+        <c:axId val="95935488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7217,7 +7215,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142805632"/>
+        <c:crossAx val="95933952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7230,7 +7228,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7739,23 +7737,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146940288"/>
-        <c:axId val="146941824"/>
+        <c:axId val="97019776"/>
+        <c:axId val="97021312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146940288"/>
+        <c:axId val="97019776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146941824"/>
+        <c:crossAx val="97021312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146941824"/>
+        <c:axId val="97021312"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -7764,7 +7762,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146940288"/>
+        <c:crossAx val="97019776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7777,7 +7775,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8286,23 +8284,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146989056"/>
-        <c:axId val="146990592"/>
+        <c:axId val="97064832"/>
+        <c:axId val="97066368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146989056"/>
+        <c:axId val="97064832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146990592"/>
+        <c:crossAx val="97066368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146990592"/>
+        <c:axId val="97066368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8311,7 +8309,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146989056"/>
+        <c:crossAx val="97064832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8324,7 +8322,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8833,23 +8831,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="146693504"/>
-        <c:axId val="146699392"/>
+        <c:axId val="97110272"/>
+        <c:axId val="97128448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146693504"/>
+        <c:axId val="97110272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146699392"/>
+        <c:crossAx val="97128448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="146699392"/>
+        <c:axId val="97128448"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8858,7 +8856,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146693504"/>
+        <c:crossAx val="97110272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8871,7 +8869,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9380,23 +9378,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="150756352"/>
-        <c:axId val="150766336"/>
+        <c:axId val="97298688"/>
+        <c:axId val="97304576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150756352"/>
+        <c:axId val="97298688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150766336"/>
+        <c:crossAx val="97304576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150766336"/>
+        <c:axId val="97304576"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9405,7 +9403,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150756352"/>
+        <c:crossAx val="97298688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9418,7 +9416,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9927,23 +9925,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="150842752"/>
-        <c:axId val="150852736"/>
+        <c:axId val="97405184"/>
+        <c:axId val="97415168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150842752"/>
+        <c:axId val="97405184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150852736"/>
+        <c:crossAx val="97415168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150852736"/>
+        <c:axId val="97415168"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -9952,7 +9950,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150842752"/>
+        <c:crossAx val="97405184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9965,7 +9963,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10474,23 +10472,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="151015424"/>
-        <c:axId val="151016960"/>
+        <c:axId val="97446144"/>
+        <c:axId val="97202176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151015424"/>
+        <c:axId val="97446144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151016960"/>
+        <c:crossAx val="97202176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151016960"/>
+        <c:axId val="97202176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -10499,7 +10497,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151015424"/>
+        <c:crossAx val="97446144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10512,7 +10510,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11021,23 +11019,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="152002944"/>
-        <c:axId val="152004480"/>
+        <c:axId val="97237248"/>
+        <c:axId val="97247232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152002944"/>
+        <c:axId val="97237248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152004480"/>
+        <c:crossAx val="97247232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152004480"/>
+        <c:axId val="97247232"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11046,7 +11044,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152002944"/>
+        <c:crossAx val="97237248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11059,7 +11057,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11568,23 +11566,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="152089344"/>
-        <c:axId val="152090880"/>
+        <c:axId val="97556736"/>
+        <c:axId val="97566720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152089344"/>
+        <c:axId val="97556736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152090880"/>
+        <c:crossAx val="97566720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152090880"/>
+        <c:axId val="97566720"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -11593,7 +11591,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152089344"/>
+        <c:crossAx val="97556736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11606,7 +11604,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12115,23 +12113,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="152568960"/>
-        <c:axId val="152570496"/>
+        <c:axId val="97458432"/>
+        <c:axId val="97484800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152568960"/>
+        <c:axId val="97458432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152570496"/>
+        <c:crossAx val="97484800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152570496"/>
+        <c:axId val="97484800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12140,7 +12138,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152568960"/>
+        <c:crossAx val="97458432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12153,7 +12151,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -12662,23 +12660,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="152954752"/>
-        <c:axId val="152956288"/>
+        <c:axId val="97503872"/>
+        <c:axId val="97583488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152954752"/>
+        <c:axId val="97503872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152956288"/>
+        <c:crossAx val="97583488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152956288"/>
+        <c:axId val="97583488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -12687,7 +12685,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152954752"/>
+        <c:crossAx val="97503872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12700,7 +12698,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13209,23 +13207,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="142846976"/>
-        <c:axId val="142861056"/>
+        <c:axId val="95999488"/>
+        <c:axId val="96001024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="142846976"/>
+        <c:axId val="95999488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142861056"/>
+        <c:crossAx val="96001024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="142861056"/>
+        <c:axId val="96001024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13233,7 +13231,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142846976"/>
+        <c:crossAx val="95999488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13246,7 +13244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -13755,23 +13753,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="150024192"/>
-        <c:axId val="150025728"/>
+        <c:axId val="97663616"/>
+        <c:axId val="97673600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150024192"/>
+        <c:axId val="97663616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150025728"/>
+        <c:crossAx val="97673600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150025728"/>
+        <c:axId val="97673600"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -13780,7 +13778,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150024192"/>
+        <c:crossAx val="97663616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13793,7 +13791,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14302,23 +14300,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="150057344"/>
-        <c:axId val="150058880"/>
+        <c:axId val="97692288"/>
+        <c:axId val="97706368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150057344"/>
+        <c:axId val="97692288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150058880"/>
+        <c:crossAx val="97706368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150058880"/>
+        <c:axId val="97706368"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14327,7 +14325,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150057344"/>
+        <c:crossAx val="97692288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14340,7 +14338,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -14849,23 +14847,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155624192"/>
-        <c:axId val="155625728"/>
+        <c:axId val="97737344"/>
+        <c:axId val="97751424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155624192"/>
+        <c:axId val="97737344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155625728"/>
+        <c:crossAx val="97751424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155625728"/>
+        <c:axId val="97751424"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -14874,7 +14872,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155624192"/>
+        <c:crossAx val="97737344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14887,7 +14885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15396,23 +15394,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155804800"/>
-        <c:axId val="155806336"/>
+        <c:axId val="97774208"/>
+        <c:axId val="97919360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155804800"/>
+        <c:axId val="97774208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155806336"/>
+        <c:crossAx val="97919360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155806336"/>
+        <c:axId val="97919360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15421,7 +15419,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155804800"/>
+        <c:crossAx val="97774208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15434,7 +15432,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -15943,23 +15941,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155727360"/>
-        <c:axId val="155728896"/>
+        <c:axId val="97962624"/>
+        <c:axId val="97980800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155727360"/>
+        <c:axId val="97962624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155728896"/>
+        <c:crossAx val="97980800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155728896"/>
+        <c:axId val="97980800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -15968,7 +15966,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155727360"/>
+        <c:crossAx val="97962624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15981,7 +15979,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -16490,23 +16488,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155772800"/>
-        <c:axId val="155774336"/>
+        <c:axId val="98036352"/>
+        <c:axId val="98038144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155772800"/>
+        <c:axId val="98036352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155774336"/>
+        <c:crossAx val="98038144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155774336"/>
+        <c:axId val="98038144"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -16515,20 +16513,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155772800"/>
+        <c:crossAx val="98036352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -17037,23 +17034,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155703936"/>
-        <c:axId val="155844992"/>
+        <c:axId val="98057216"/>
+        <c:axId val="98079488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155703936"/>
+        <c:axId val="98057216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155844992"/>
+        <c:crossAx val="98079488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155844992"/>
+        <c:axId val="98079488"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -17062,20 +17059,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155703936"/>
+        <c:crossAx val="98057216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -17584,23 +17580,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="147135872"/>
-        <c:axId val="147154048"/>
+        <c:axId val="96097792"/>
+        <c:axId val="96099328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147135872"/>
+        <c:axId val="96097792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147154048"/>
+        <c:crossAx val="96099328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147154048"/>
+        <c:axId val="96099328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17608,7 +17604,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147135872"/>
+        <c:crossAx val="96097792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -17621,7 +17617,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18130,23 +18126,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149688320"/>
-        <c:axId val="149689856"/>
+        <c:axId val="96224768"/>
+        <c:axId val="96226304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149688320"/>
+        <c:axId val="96224768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149689856"/>
+        <c:crossAx val="96226304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149689856"/>
+        <c:axId val="96226304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18154,7 +18150,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149688320"/>
+        <c:crossAx val="96224768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18167,7 +18163,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -18676,23 +18672,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149721472"/>
-        <c:axId val="149723008"/>
+        <c:axId val="96269824"/>
+        <c:axId val="96271360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149721472"/>
+        <c:axId val="96269824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149723008"/>
+        <c:crossAx val="96271360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149723008"/>
+        <c:axId val="96271360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18700,7 +18696,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149721472"/>
+        <c:crossAx val="96269824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -18713,7 +18709,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19222,23 +19218,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149893888"/>
-        <c:axId val="149895424"/>
+        <c:axId val="96200192"/>
+        <c:axId val="96201728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149893888"/>
+        <c:axId val="96200192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149895424"/>
+        <c:crossAx val="96201728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149895424"/>
+        <c:axId val="96201728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19246,20 +19242,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149893888"/>
+        <c:crossAx val="96200192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19768,23 +19763,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="149931520"/>
-        <c:axId val="149933056"/>
+        <c:axId val="96294400"/>
+        <c:axId val="96295936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="149931520"/>
+        <c:axId val="96294400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149933056"/>
+        <c:crossAx val="96295936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="149933056"/>
+        <c:axId val="96295936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19792,20 +19787,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149931520"/>
+        <c:crossAx val="96294400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20314,23 +20308,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="136698496"/>
-        <c:axId val="136704384"/>
+        <c:axId val="96462336"/>
+        <c:axId val="96463872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="136698496"/>
+        <c:axId val="96462336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136704384"/>
+        <c:crossAx val="96463872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="136704384"/>
+        <c:axId val="96463872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20338,7 +20332,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136698496"/>
+        <c:crossAx val="96462336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20351,7 +20345,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -21777,39 +21771,39 @@
         <v>45</v>
       </c>
       <c r="D1">
-        <f t="shared" ref="D1:D13" ca="1" si="0">OFFSET($B1, 13*(COLUMN(D2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="D1:D12" ca="1" si="0">OFFSET($B1, 13*(COLUMN(D2)-COLUMN($B1)), 0)</f>
         <v>90</v>
       </c>
       <c r="E1">
-        <f t="shared" ref="E1:E13" ca="1" si="1">OFFSET($B1, 13*(COLUMN(E2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="E1:E12" ca="1" si="1">OFFSET($B1, 13*(COLUMN(E2)-COLUMN($B1)), 0)</f>
         <v>135</v>
       </c>
       <c r="F1">
-        <f t="shared" ref="F1:F13" ca="1" si="2">OFFSET($B1, 13*(COLUMN(F2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="F1:F12" ca="1" si="2">OFFSET($B1, 13*(COLUMN(F2)-COLUMN($B1)), 0)</f>
         <v>180</v>
       </c>
       <c r="G1">
-        <f t="shared" ref="G1:G13" ca="1" si="3">OFFSET($B1, 13*(COLUMN(G2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="G1:G12" ca="1" si="3">OFFSET($B1, 13*(COLUMN(G2)-COLUMN($B1)), 0)</f>
         <v>225</v>
       </c>
       <c r="H1">
-        <f t="shared" ref="H1:H13" ca="1" si="4">OFFSET($B1, 13*(COLUMN(H2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="H1:H12" ca="1" si="4">OFFSET($B1, 13*(COLUMN(H2)-COLUMN($B1)), 0)</f>
         <v>270</v>
       </c>
       <c r="I1">
-        <f t="shared" ref="I1:I13" ca="1" si="5">OFFSET($B1, 13*(COLUMN(I2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="I1:I12" ca="1" si="5">OFFSET($B1, 13*(COLUMN(I2)-COLUMN($B1)), 0)</f>
         <v>315</v>
       </c>
       <c r="J1">
-        <f t="shared" ref="J1:J13" ca="1" si="6">OFFSET($B1, 13*(COLUMN(J2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="J1:J12" ca="1" si="6">OFFSET($B1, 13*(COLUMN(J2)-COLUMN($B1)), 0)</f>
         <v>360</v>
       </c>
       <c r="K1">
-        <f t="shared" ref="K1:K13" ca="1" si="7">OFFSET($B1, 13*(COLUMN(K2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="K1:K12" ca="1" si="7">OFFSET($B1, 13*(COLUMN(K2)-COLUMN($B1)), 0)</f>
         <v>405</v>
       </c>
       <c r="L1">
-        <f t="shared" ref="L1:L13" ca="1" si="8">OFFSET($B1, 13*(COLUMN(L2)-COLUMN($B1)), 0)</f>
+        <f t="shared" ref="L1:L12" ca="1" si="8">OFFSET($B1, 13*(COLUMN(L2)-COLUMN($B1)), 0)</f>
         <v>442</v>
       </c>
     </row>
@@ -21821,7 +21815,7 @@
         <v>179706</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C13" ca="1" si="9">OFFSET($B2, 13*(COLUMN(C3)-COLUMN($B2)), 0)</f>
+        <f t="shared" ref="C2:C12" ca="1" si="9">OFFSET($B2, 13*(COLUMN(C3)-COLUMN($B2)), 0)</f>
         <v>46346</v>
       </c>
       <c r="D2">
@@ -27551,7 +27545,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A19" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A16" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="J37" sqref="J37"/>
     </sheetView>

--- a/de.hpi.sam.bp2009.solution.eventManager/measurementOverGrowingRegistrationCount.xlsx
+++ b/de.hpi.sam.bp2009.solution.eventManager/measurementOverGrowingRegistrationCount.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20940" windowHeight="12405" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20940" windowHeight="12405" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="allEvents" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="new table collated registration" sheetId="10" r:id="rId7"/>
     <sheet name="new tab collated vs. uncollated" sheetId="11" r:id="rId8"/>
     <sheet name="newtab coll_no_stat vs. uncoll" sheetId="12" r:id="rId9"/>
+    <sheet name="newtb colnostatbitset vs. uncol" sheetId="13" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="27">
   <si>
     <t>Subscription count</t>
   </si>
@@ -100,6 +101,9 @@
   </si>
   <si>
     <t>Avg:</t>
+  </si>
+  <si>
+    <t>Collated w/ all bit sets</t>
   </si>
 </sst>
 </file>
@@ -29645,6 +29649,1098 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27885</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15828</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15355</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8128.5000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>693733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56685</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54757</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54915</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54859</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54699</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54768</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54268</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54728</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="130077824"/>
+        <c:axId val="130079360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130077824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130079360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130079360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130077824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$13:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>143000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$13:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$13:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17897</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20149</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20469</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32198</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$13:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5337.3333333333339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1988.5555555555557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1088.8235294117646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>774.96153846153845</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>584.82857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>438.86538461538458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>392.6056338028169</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>292.22580645161287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>272.86440677966101</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>196.68531468531469</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$13:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$13:$K$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57605</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57477</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>58253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66884</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>66280</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>66870</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="130119552"/>
+        <c:axId val="130121088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130119552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130121088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130121088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130119552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
@@ -30185,6 +31281,2736 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$24:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$24:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$24:$E$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14713</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18243</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19390</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17587</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17808</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20059</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$24:$F$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8024.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3396.7999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2027.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1491.5384615384614</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1034.5294117647059</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>809.45454545454538</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>742.92592592592587</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$24:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$24:$K$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52462</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>265511</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54523</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55584</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56026</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="130165376"/>
+        <c:axId val="130204032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130165376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130204032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130204032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130165376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$35:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$35:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$35:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15449</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15614</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15463</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15462</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15671</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15563</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15398</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$35:$F$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15321</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3309.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$35:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$35:$K$45</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54059</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54097</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>54652</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>54105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54155</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54140</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53726</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="130260352"/>
+        <c:axId val="130274432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130260352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130274432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130274432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130260352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$46:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$46:$C$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>103000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$46:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$46:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$46:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$46:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30679</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31408</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31360</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32172</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31121</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>36824</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39506</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>280260</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40460</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$46:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$46:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10226.333333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3489.7777777777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2090.6666666666665</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1531.3333333333335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1191.5555555555554</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>915.32352941176475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>818.31111111111113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>658.43333333333328</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3547.594936708861</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>392.81553398058247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$46:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$46:$K$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>107878</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>109996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>110218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>407244</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108872</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115663</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>117058</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="130331008"/>
+        <c:axId val="130332544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="130331008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130332544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="130332544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="130331008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$57:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$57:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>168000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>287000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>443000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>615000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>810000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1029000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1270000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1534000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$57:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$57:$D$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$57:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$57:$E$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>101296</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>109163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>156046</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160888</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>165411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>186623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$57:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$57:$F$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>826.16666666666674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>488.26190476190476</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>317.91071428571428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>302.49477351916374</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.65914221218961</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177.50081300813008</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>192.64938271604939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156.35374149659864</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>130.24488188976378</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>121.65775749674054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$57:$B$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$57:$K$67</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81990</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>127867</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141333</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>194957</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>203824</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>207286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>222210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="125416576"/>
+        <c:axId val="125418112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125416576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125418112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125418112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125416576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$68:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$C$68:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10^6*minTableSize</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$68:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$D$68:$D$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time (ns)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$68:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$E$68:$E$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14234</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14316</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14430</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14240</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14304</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14244</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14719</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1000*time/delivered</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$68:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$F$68:$F$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7359.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3762.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Collated w/ all bit sets</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$B$68:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'newtb colnostatbitset vs. uncol'!$K$68:$K$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52308</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52752</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52439</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52583</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52515</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52761</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52632</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54473</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="125651200"/>
+        <c:axId val="125657088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="125651200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125657088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="125657088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="125651200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -31853,6 +35679,221 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -35494,6 +39535,2411 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="615" topLeftCell="A37" activePane="bottomLeft"/>
+      <selection activeCell="L2" sqref="L2"/>
+      <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="str">
+        <f>CONCATENATE(G1, "*time/delivered")</f>
+        <v>1000*time/delivered</v>
+      </c>
+      <c r="G1" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>451</v>
+      </c>
+      <c r="F2" s="2">
+        <f>G$1*IF(C2=0,0,E2/C2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <f>INDEX(LINEST($E3:$E12, $B3:$B12, TRUE), 1)</f>
+        <v>-37.797987675135673</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1">
+        <f>INDEX(LINEST( $E3:$E12, $B3:$B12,TRUE), 2)</f>
+        <v>30430.763559455969</v>
+      </c>
+      <c r="K2" s="2">
+        <f>'new table collated registration'!E2</f>
+        <v>275</v>
+      </c>
+      <c r="L2" s="8">
+        <f>(K2-E2)/K2</f>
+        <v>-0.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>27889</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F66" si="0">G$1*IF(C3=0,0,E3/C3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <f>'new table collated registration'!E3</f>
+        <v>693733</v>
+      </c>
+      <c r="L3" s="8">
+        <f t="shared" ref="L3:L66" si="1">(K3-E3)/K3</f>
+        <v>0.95979865452558832</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>27885</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="2">
+        <f>'new table collated registration'!E4</f>
+        <v>56685</v>
+      </c>
+      <c r="L4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.50807091823233663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>135</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>25362</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <f>'new table collated registration'!E5</f>
+        <v>54757</v>
+      </c>
+      <c r="L5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53682634183757327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>180</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>25333</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <f>'new table collated registration'!E6</f>
+        <v>54660</v>
+      </c>
+      <c r="L6" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53653494328576656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>225</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>25296</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <f>'new table collated registration'!E7</f>
+        <v>54915</v>
+      </c>
+      <c r="L7" s="8">
+        <f t="shared" si="1"/>
+        <v>0.53936083037421467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>270</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>15821</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <f>'new table collated registration'!E8</f>
+        <v>54859</v>
+      </c>
+      <c r="L8" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71160611750123037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>315</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>15828</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <f>'new table collated registration'!E9</f>
+        <v>54699</v>
+      </c>
+      <c r="L9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71063456370317557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>360</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16034</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <f>'new table collated registration'!E10</f>
+        <v>54768</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" si="1"/>
+        <v>0.70723780309669881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>405</v>
+      </c>
+      <c r="C11">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>15355</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="0"/>
+        <v>15355</v>
+      </c>
+      <c r="K11" s="2">
+        <f>'new table collated registration'!E11</f>
+        <v>54268</v>
+      </c>
+      <c r="L11" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71705240657477698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>442</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16257</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="0"/>
+        <v>8128.5000000000009</v>
+      </c>
+      <c r="K12" s="2">
+        <f>'new table collated registration'!E12</f>
+        <v>54728</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.70294913024411632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>276</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" ref="H13" si="2">INDEX(LINEST($E14:$E23, $B14:$B23, TRUE), 1)</f>
+        <v>37.923666143723374</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" ref="J13" si="3">INDEX(LINEST( $E14:$E23, $B14:$B23,TRUE), 2)</f>
+        <v>13767.631562343446</v>
+      </c>
+      <c r="K13" s="2">
+        <f>'new table collated registration'!E13</f>
+        <v>290</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>4.8275862068965517E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>45</v>
+      </c>
+      <c r="C14">
+        <v>3000</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>16012</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="0"/>
+        <v>5337.3333333333339</v>
+      </c>
+      <c r="K14" s="2">
+        <f>'new table collated registration'!E14</f>
+        <v>54512</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.70626651012621078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>90</v>
+      </c>
+      <c r="C15">
+        <v>9000</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>17897</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>1988.5555555555557</v>
+      </c>
+      <c r="K15" s="2">
+        <f>'new table collated registration'!E15</f>
+        <v>57605</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68931516361426959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>135</v>
+      </c>
+      <c r="C16">
+        <v>17000</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>18510</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="0"/>
+        <v>1088.8235294117646</v>
+      </c>
+      <c r="K16" s="2">
+        <f>'new table collated registration'!E16</f>
+        <v>57477</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.67795813977765018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>180</v>
+      </c>
+      <c r="C17">
+        <v>26000</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>20149</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="0"/>
+        <v>774.96153846153845</v>
+      </c>
+      <c r="K17" s="2">
+        <f>'new table collated registration'!E17</f>
+        <v>59052</v>
+      </c>
+      <c r="L17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.65879225089751403</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>225</v>
+      </c>
+      <c r="C18">
+        <v>35000</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20469</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="0"/>
+        <v>584.82857142857142</v>
+      </c>
+      <c r="K18" s="2">
+        <f>'new table collated registration'!E18</f>
+        <v>58253</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>0.64861895524694002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="C19">
+        <v>52000</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>22821</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>438.86538461538458</v>
+      </c>
+      <c r="K19" s="2">
+        <f>'new table collated registration'!E19</f>
+        <v>61643</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.62978764823256494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>315</v>
+      </c>
+      <c r="C20">
+        <v>71000</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>27875</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="0"/>
+        <v>392.6056338028169</v>
+      </c>
+      <c r="K20" s="2">
+        <f>'new table collated registration'!E20</f>
+        <v>66884</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.58323365827402662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>360</v>
+      </c>
+      <c r="C21">
+        <v>93000</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>27177</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="0"/>
+        <v>292.22580645161287</v>
+      </c>
+      <c r="K21" s="2">
+        <f>'new table collated registration'!E21</f>
+        <v>66280</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>0.58996680748340369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>405</v>
+      </c>
+      <c r="C22">
+        <v>118000</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>32198</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>272.86440677966101</v>
+      </c>
+      <c r="K22" s="2">
+        <f>'new table collated registration'!E22</f>
+        <v>70769</v>
+      </c>
+      <c r="L22" s="8">
+        <f t="shared" si="1"/>
+        <v>0.54502677726123017</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>442</v>
+      </c>
+      <c r="C23">
+        <v>143000</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>28126</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="0"/>
+        <v>196.68531468531469</v>
+      </c>
+      <c r="K23" s="2">
+        <f>'new table collated registration'!E23</f>
+        <v>66870</v>
+      </c>
+      <c r="L23" s="8">
+        <f t="shared" si="1"/>
+        <v>0.57939285180200384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="7">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>288</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24" si="4">INDEX(LINEST($E25:$E34, $B25:$B34, TRUE), 1)</f>
+        <v>13.103219365865654</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" ref="J24" si="5">INDEX(LINEST( $E25:$E34, $B25:$B34,TRUE), 2)</f>
+        <v>13780.735782440943</v>
+      </c>
+      <c r="K24" s="2">
+        <f>'new table collated registration'!E24</f>
+        <v>258</v>
+      </c>
+      <c r="L24" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.11627906976744186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>14598</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <f>'new table collated registration'!E25</f>
+        <v>52462</v>
+      </c>
+      <c r="L25" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72174145095497688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26">
+        <v>90</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>14713</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <f>'new table collated registration'!E26</f>
+        <v>52892</v>
+      </c>
+      <c r="L26" s="8">
+        <f t="shared" si="1"/>
+        <v>0.72182938818724951</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>135</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>14702</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="2">
+        <f>'new table collated registration'!E27</f>
+        <v>55848</v>
+      </c>
+      <c r="L27" s="8">
+        <f t="shared" si="1"/>
+        <v>0.7367497493195817</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>180</v>
+      </c>
+      <c r="C28">
+        <v>2000</v>
+      </c>
+      <c r="D28" s="7">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>16049</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="0"/>
+        <v>8024.5</v>
+      </c>
+      <c r="K28" s="2">
+        <f>'new table collated registration'!E28</f>
+        <v>265511</v>
+      </c>
+      <c r="L28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.93955429341910501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29">
+        <v>225</v>
+      </c>
+      <c r="C29">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>16984</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="0"/>
+        <v>3396.7999999999997</v>
+      </c>
+      <c r="K29" s="2">
+        <f>'new table collated registration'!E29</f>
+        <v>54523</v>
+      </c>
+      <c r="L29" s="8">
+        <f t="shared" si="1"/>
+        <v>0.6884984318544467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>270</v>
+      </c>
+      <c r="C30">
+        <v>9000</v>
+      </c>
+      <c r="D30" s="7">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>18243</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="0"/>
+        <v>2027.0000000000002</v>
+      </c>
+      <c r="K30" s="2">
+        <f>'new table collated registration'!E30</f>
+        <v>55584</v>
+      </c>
+      <c r="L30" s="8">
+        <f t="shared" si="1"/>
+        <v>0.67179404145077726</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31">
+        <v>315</v>
+      </c>
+      <c r="C31">
+        <v>13000</v>
+      </c>
+      <c r="D31" s="7">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>19390</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="0"/>
+        <v>1491.5384615384614</v>
+      </c>
+      <c r="K31" s="2">
+        <f>'new table collated registration'!E31</f>
+        <v>56263</v>
+      </c>
+      <c r="L31" s="8">
+        <f t="shared" si="1"/>
+        <v>0.65536853704921527</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32">
+        <v>360</v>
+      </c>
+      <c r="C32">
+        <v>17000</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>17587</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="0"/>
+        <v>1034.5294117647059</v>
+      </c>
+      <c r="K32" s="2">
+        <f>'new table collated registration'!E32</f>
+        <v>56026</v>
+      </c>
+      <c r="L32" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68609217149180735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>405</v>
+      </c>
+      <c r="C33">
+        <v>22000</v>
+      </c>
+      <c r="D33" s="7">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>17808</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="0"/>
+        <v>809.45454545454538</v>
+      </c>
+      <c r="K33" s="2">
+        <f>'new table collated registration'!E33</f>
+        <v>56350</v>
+      </c>
+      <c r="L33" s="8">
+        <f t="shared" si="1"/>
+        <v>0.68397515527950314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>442</v>
+      </c>
+      <c r="C34">
+        <v>27000</v>
+      </c>
+      <c r="D34" s="7">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20059</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="0"/>
+        <v>742.92592592592587</v>
+      </c>
+      <c r="K34" s="2">
+        <f>'new table collated registration'!E34</f>
+        <v>58368</v>
+      </c>
+      <c r="L34" s="8">
+        <f t="shared" si="1"/>
+        <v>0.65633566337719296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>264</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ref="H35" si="6">INDEX(LINEST($E36:$E45, $B36:$B45, TRUE), 1)</f>
+        <v>1.0250079173737385</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" ref="J35" si="7">INDEX(LINEST( $E36:$E45, $B36:$B45,TRUE), 2)</f>
+        <v>15354.930546783899</v>
+      </c>
+      <c r="K35" s="2">
+        <f>'new table collated registration'!E35</f>
+        <v>270</v>
+      </c>
+      <c r="L35" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2222222222222223E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>15449</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <f>'new table collated registration'!E36</f>
+        <v>54439</v>
+      </c>
+      <c r="L36" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71621447859071619</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>90</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" s="7">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>15614</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <f>'new table collated registration'!E37</f>
+        <v>54059</v>
+      </c>
+      <c r="L37" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71116742818032153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>135</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" s="7">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>15463</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <f>'new table collated registration'!E38</f>
+        <v>54097</v>
+      </c>
+      <c r="L38" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71416159860990447</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>180</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39" s="7">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>15589</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2">
+        <f>'new table collated registration'!E39</f>
+        <v>54290</v>
+      </c>
+      <c r="L39" s="8">
+        <f t="shared" si="1"/>
+        <v>0.7128568797200221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>225</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>15462</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <f>'new table collated registration'!E40</f>
+        <v>54652</v>
+      </c>
+      <c r="L40" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71708263192563859</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>270</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>15671</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2">
+        <f>'new table collated registration'!E41</f>
+        <v>54105</v>
+      </c>
+      <c r="L41" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71035948618427136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>315</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="7">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>15563</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2">
+        <f>'new table collated registration'!E42</f>
+        <v>53939</v>
+      </c>
+      <c r="L42" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71147036467120262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>360</v>
+      </c>
+      <c r="C43">
+        <v>1000</v>
+      </c>
+      <c r="D43" s="7">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>15321</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="0"/>
+        <v>15321</v>
+      </c>
+      <c r="K43" s="2">
+        <f>'new table collated registration'!E43</f>
+        <v>54155</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71708983473363497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>405</v>
+      </c>
+      <c r="C44">
+        <v>2000</v>
+      </c>
+      <c r="D44" s="7">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>15398</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="0"/>
+        <v>7699</v>
+      </c>
+      <c r="K44" s="2">
+        <f>'new table collated registration'!E44</f>
+        <v>54140</v>
+      </c>
+      <c r="L44" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71558921315108981</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>442</v>
+      </c>
+      <c r="C45">
+        <v>5000</v>
+      </c>
+      <c r="D45" s="7">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>16548</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="0"/>
+        <v>3309.6</v>
+      </c>
+      <c r="K45" s="2">
+        <f>'new table collated registration'!E45</f>
+        <v>53726</v>
+      </c>
+      <c r="L45" s="8">
+        <f t="shared" si="1"/>
+        <v>0.69199270371886978</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" s="7">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>287</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ref="H46" si="8">INDEX(LINEST($E47:$E56, $B47:$B56, TRUE), 1)</f>
+        <v>259.50468299689834</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" ref="J46" si="9">INDEX(LINEST( $E47:$E56, $B47:$B56,TRUE), 2)</f>
+        <v>-5425.0052953348131</v>
+      </c>
+      <c r="K46" s="2">
+        <f>'new table collated registration'!E46</f>
+        <v>261</v>
+      </c>
+      <c r="L46" s="8">
+        <f t="shared" si="1"/>
+        <v>-9.9616858237547887E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>3000</v>
+      </c>
+      <c r="D47" s="7">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30679</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="0"/>
+        <v>10226.333333333332</v>
+      </c>
+      <c r="K47" s="2">
+        <f>'new table collated registration'!E47</f>
+        <v>107878</v>
+      </c>
+      <c r="L47" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71561393425907038</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>90</v>
+      </c>
+      <c r="C48">
+        <v>9000</v>
+      </c>
+      <c r="D48" s="7">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>31408</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="0"/>
+        <v>3489.7777777777778</v>
+      </c>
+      <c r="K48" s="2">
+        <f>'new table collated registration'!E48</f>
+        <v>109996</v>
+      </c>
+      <c r="L48" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71446234408523945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>135</v>
+      </c>
+      <c r="C49">
+        <v>15000</v>
+      </c>
+      <c r="D49" s="7">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>31360</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="0"/>
+        <v>2090.6666666666665</v>
+      </c>
+      <c r="K49" s="2">
+        <f>'new table collated registration'!E49</f>
+        <v>109883</v>
+      </c>
+      <c r="L49" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71460553497811308</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>180</v>
+      </c>
+      <c r="C50">
+        <v>21000</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>32158</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="0"/>
+        <v>1531.3333333333335</v>
+      </c>
+      <c r="K50" s="2">
+        <f>'new table collated registration'!E50</f>
+        <v>110218</v>
+      </c>
+      <c r="L50" s="8">
+        <f t="shared" si="1"/>
+        <v>0.70823277504581827</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>225</v>
+      </c>
+      <c r="C51">
+        <v>27000</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>32172</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="0"/>
+        <v>1191.5555555555554</v>
+      </c>
+      <c r="K51" s="2">
+        <f>'new table collated registration'!E51</f>
+        <v>407244</v>
+      </c>
+      <c r="L51" s="8">
+        <f t="shared" si="1"/>
+        <v>0.92100067772637539</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B52">
+        <v>270</v>
+      </c>
+      <c r="C52">
+        <v>34000</v>
+      </c>
+      <c r="D52" s="7">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>31121</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="0"/>
+        <v>915.32352941176475</v>
+      </c>
+      <c r="K52" s="2">
+        <f>'new table collated registration'!E52</f>
+        <v>108872</v>
+      </c>
+      <c r="L52" s="8">
+        <f t="shared" si="1"/>
+        <v>0.71415056212800354</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53">
+        <v>315</v>
+      </c>
+      <c r="C53">
+        <v>45000</v>
+      </c>
+      <c r="D53" s="7">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>36824</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="0"/>
+        <v>818.31111111111113</v>
+      </c>
+      <c r="K53" s="2">
+        <f>'new table collated registration'!E53</f>
+        <v>112250</v>
+      </c>
+      <c r="L53" s="8">
+        <f t="shared" si="1"/>
+        <v>0.67194654788418706</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54">
+        <v>360</v>
+      </c>
+      <c r="C54">
+        <v>60000</v>
+      </c>
+      <c r="D54" s="7">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>39506</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="0"/>
+        <v>658.43333333333328</v>
+      </c>
+      <c r="K54" s="2">
+        <f>'new table collated registration'!E54</f>
+        <v>115663</v>
+      </c>
+      <c r="L54" s="8">
+        <f t="shared" si="1"/>
+        <v>0.65843874013297254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55">
+        <v>405</v>
+      </c>
+      <c r="C55">
+        <v>79000</v>
+      </c>
+      <c r="D55" s="7">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>280260</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="0"/>
+        <v>3547.594936708861</v>
+      </c>
+      <c r="K55" s="2">
+        <f>'new table collated registration'!E55</f>
+        <v>117058</v>
+      </c>
+      <c r="L55" s="8">
+        <f t="shared" si="1"/>
+        <v>-1.3941977481248611</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56">
+        <v>442</v>
+      </c>
+      <c r="C56">
+        <v>103000</v>
+      </c>
+      <c r="D56" s="7">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>40460</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="0"/>
+        <v>392.81553398058247</v>
+      </c>
+      <c r="K56" s="2">
+        <f>'new table collated registration'!E56</f>
+        <v>120109</v>
+      </c>
+      <c r="L56" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66313931512209745</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57" s="7">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>264</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" ref="H57" si="10">INDEX(LINEST($E58:$E67, $B58:$B67, TRUE), 1)</f>
+        <v>419.09615200381256</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" ref="J57" si="11">INDEX(LINEST( $E58:$E67, $B58:$B67,TRUE), 2)</f>
+        <v>5154.0793006594467</v>
+      </c>
+      <c r="K57" s="2">
+        <f>'new table collated registration'!E57</f>
+        <v>291</v>
+      </c>
+      <c r="L57" s="8">
+        <f t="shared" si="1"/>
+        <v>9.2783505154639179E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>45</v>
+      </c>
+      <c r="C58">
+        <v>30000</v>
+      </c>
+      <c r="D58" s="7">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>24785</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="0"/>
+        <v>826.16666666666674</v>
+      </c>
+      <c r="K58" s="2">
+        <f>'new table collated registration'!E58</f>
+        <v>64825</v>
+      </c>
+      <c r="L58" s="8">
+        <f t="shared" si="1"/>
+        <v>0.61766293868106437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>90</v>
+      </c>
+      <c r="C59">
+        <v>84000</v>
+      </c>
+      <c r="D59" s="7">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>41014</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="0"/>
+        <v>488.26190476190476</v>
+      </c>
+      <c r="K59" s="2">
+        <f>'new table collated registration'!E59</f>
+        <v>81990</v>
+      </c>
+      <c r="L59" s="8">
+        <f t="shared" si="1"/>
+        <v>0.49976826442249056</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>135</v>
+      </c>
+      <c r="C60">
+        <v>168000</v>
+      </c>
+      <c r="D60" s="7">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>53409</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" si="0"/>
+        <v>317.91071428571428</v>
+      </c>
+      <c r="K60" s="2">
+        <f>'new table collated registration'!E60</f>
+        <v>93524</v>
+      </c>
+      <c r="L60" s="8">
+        <f t="shared" si="1"/>
+        <v>0.42892733416021556</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>180</v>
+      </c>
+      <c r="C61">
+        <v>287000</v>
+      </c>
+      <c r="D61" s="7">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>86816</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" si="0"/>
+        <v>302.49477351916374</v>
+      </c>
+      <c r="K61" s="2">
+        <f>'new table collated registration'!E61</f>
+        <v>127867</v>
+      </c>
+      <c r="L61" s="8">
+        <f t="shared" si="1"/>
+        <v>0.3210445228244973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62">
+        <v>225</v>
+      </c>
+      <c r="C62">
+        <v>443000</v>
+      </c>
+      <c r="D62" s="7">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>101296</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" si="0"/>
+        <v>228.65914221218961</v>
+      </c>
+      <c r="K62" s="2">
+        <f>'new table collated registration'!E62</f>
+        <v>141333</v>
+      </c>
+      <c r="L62" s="8">
+        <f t="shared" si="1"/>
+        <v>0.2832813284936993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63">
+        <v>270</v>
+      </c>
+      <c r="C63">
+        <v>615000</v>
+      </c>
+      <c r="D63" s="7">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>109163</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" si="0"/>
+        <v>177.50081300813008</v>
+      </c>
+      <c r="K63" s="2">
+        <f>'new table collated registration'!E63</f>
+        <v>148458</v>
+      </c>
+      <c r="L63" s="8">
+        <f t="shared" si="1"/>
+        <v>0.26468765576796133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>315</v>
+      </c>
+      <c r="C64">
+        <v>810000</v>
+      </c>
+      <c r="D64" s="7">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>156046</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" si="0"/>
+        <v>192.64938271604939</v>
+      </c>
+      <c r="K64" s="2">
+        <f>'new table collated registration'!E64</f>
+        <v>194957</v>
+      </c>
+      <c r="L64" s="8">
+        <f t="shared" si="1"/>
+        <v>0.1995876013685069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>360</v>
+      </c>
+      <c r="C65">
+        <v>1029000</v>
+      </c>
+      <c r="D65" s="7">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>160888</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" si="0"/>
+        <v>156.35374149659864</v>
+      </c>
+      <c r="K65" s="2">
+        <f>'new table collated registration'!E65</f>
+        <v>203824</v>
+      </c>
+      <c r="L65" s="8">
+        <f t="shared" si="1"/>
+        <v>0.21065232749823376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>405</v>
+      </c>
+      <c r="C66">
+        <v>1270000</v>
+      </c>
+      <c r="D66" s="7">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>165411</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" si="0"/>
+        <v>130.24488188976378</v>
+      </c>
+      <c r="K66" s="2">
+        <f>'new table collated registration'!E66</f>
+        <v>207286</v>
+      </c>
+      <c r="L66" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20201557268701215</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>442</v>
+      </c>
+      <c r="C67">
+        <v>1534000</v>
+      </c>
+      <c r="D67" s="7">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>186623</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ref="F67:F78" si="12">G$1*IF(C67=0,0,E67/C67)</f>
+        <v>121.65775749674054</v>
+      </c>
+      <c r="K67" s="2">
+        <f>'new table collated registration'!E67</f>
+        <v>222210</v>
+      </c>
+      <c r="L67" s="8">
+        <f t="shared" ref="L67:L78" si="13">(K67-E67)/K67</f>
+        <v>0.16015030826695467</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>292</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="1">
+        <f t="shared" ref="H68" si="14">INDEX(LINEST($E69:$E78, $B69:$B78, TRUE), 1)</f>
+        <v>1.6007019766280348</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J68" s="1">
+        <f t="shared" ref="J68" si="15">INDEX(LINEST( $E69:$E78, $B69:$B78,TRUE), 2)</f>
+        <v>14100.506822365864</v>
+      </c>
+      <c r="K68" s="2">
+        <f>'new table collated registration'!E68</f>
+        <v>281</v>
+      </c>
+      <c r="L68" s="8">
+        <f t="shared" si="13"/>
+        <v>-3.9145907473309607E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>45</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>14234</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="2">
+        <f>'new table collated registration'!E69</f>
+        <v>52308</v>
+      </c>
+      <c r="L69" s="8">
+        <f t="shared" si="13"/>
+        <v>0.72788101246463255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>90</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70" s="7">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>14461</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="2">
+        <f>'new table collated registration'!E70</f>
+        <v>52752</v>
+      </c>
+      <c r="L70" s="8">
+        <f t="shared" si="13"/>
+        <v>0.72586821352744924</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>135</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>14316</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="2">
+        <f>'new table collated registration'!E71</f>
+        <v>52581</v>
+      </c>
+      <c r="L71" s="8">
+        <f t="shared" si="13"/>
+        <v>0.72773435271295717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>180</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72" s="7">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>14430</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="2">
+        <f>'new table collated registration'!E72</f>
+        <v>52439</v>
+      </c>
+      <c r="L72" s="8">
+        <f t="shared" si="13"/>
+        <v>0.72482312782471059</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>225</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73" s="7">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>14240</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="2">
+        <f>'new table collated registration'!E73</f>
+        <v>52583</v>
+      </c>
+      <c r="L73" s="8">
+        <f t="shared" si="13"/>
+        <v>0.72919004240914365</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>270</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>14304</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K74" s="2">
+        <f>'new table collated registration'!E74</f>
+        <v>52515</v>
+      </c>
+      <c r="L74" s="8">
+        <f t="shared" si="13"/>
+        <v>0.72762067980576983</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>315</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75" s="7">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>14244</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="2">
+        <f>'new table collated registration'!E75</f>
+        <v>52761</v>
+      </c>
+      <c r="L75" s="8">
+        <f t="shared" si="13"/>
+        <v>0.73002786148859955</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>360</v>
+      </c>
+      <c r="C76">
+        <v>1000</v>
+      </c>
+      <c r="D76" s="7">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>14956</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="12"/>
+        <v>14956</v>
+      </c>
+      <c r="K76" s="2">
+        <f>'new table collated registration'!E76</f>
+        <v>52513</v>
+      </c>
+      <c r="L76" s="8">
+        <f t="shared" si="13"/>
+        <v>0.71519433283187017</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>405</v>
+      </c>
+      <c r="C77">
+        <v>2000</v>
+      </c>
+      <c r="D77" s="7">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>14719</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="12"/>
+        <v>7359.5</v>
+      </c>
+      <c r="K77" s="2">
+        <f>'new table collated registration'!E77</f>
+        <v>52632</v>
+      </c>
+      <c r="L77" s="8">
+        <f t="shared" si="13"/>
+        <v>0.7203412372701018</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>442</v>
+      </c>
+      <c r="C78">
+        <v>4000</v>
+      </c>
+      <c r="D78" s="7">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>15050</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="12"/>
+        <v>3762.5</v>
+      </c>
+      <c r="K78" s="2">
+        <f>'new table collated registration'!E78</f>
+        <v>54473</v>
+      </c>
+      <c r="L78" s="8">
+        <f t="shared" si="13"/>
+        <v>0.7237163365336956</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="K80" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L80" s="8">
+        <f>AVERAGE(L2:L78)</f>
+        <v>0.54563846054811604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K78"/>
@@ -45913,7 +52359,7 @@
   <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A38" activePane="bottomLeft"/>
+      <pane ySplit="615" activePane="bottomLeft"/>
       <selection activeCell="F1" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -47996,9 +54442,9 @@
   <dimension ref="A1:L80"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A52" activePane="bottomLeft"/>
+      <pane ySplit="615" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="L2" sqref="L2"/>
-      <selection pane="bottomLeft" activeCell="L81" sqref="L81"/>
+      <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -50384,7 +56830,7 @@
       <c r="K80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="8">
         <f>AVERAGE(L2:L78)</f>
         <v>-0.12124475851302143</v>
       </c>
@@ -50400,10 +56846,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane ySplit="615" topLeftCell="A34" activePane="bottomLeft"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <pane ySplit="615" topLeftCell="A37" activePane="bottomLeft"/>
       <selection activeCell="L2" sqref="L2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E78"/>
+      <selection pane="bottomLeft" activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -52789,7 +59235,7 @@
       <c r="K80" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="8">
         <f>AVERAGE(L2:L78)</f>
         <v>-0.32053379550461969</v>
       </c>
